--- a/report/reliability/by-nivel/Doutorado.xlsx
+++ b/report/reliability/by-nivel/Doutorado.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7828710734984284</v>
+        <v>0.7551714522674516</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8102071381186033</v>
+        <v>0.7751678874561777</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8976157181207542</v>
+        <v>0.8911604901172931</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2623964444928312</v>
+        <v>0.20961897194804885</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.268902055046252</v>
+        <v>3.4477632162313485</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02636093190039614</v>
+        <v>0.027400173875702045</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.9914383561643834</v>
+        <v>2.3609062170706006</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7623020094720302</v>
+        <v>0.6549960285905138</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.24231488447820126</v>
+        <v>0.15181508149978187</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7671848230197981</v>
+        <v>0.7594971647837042</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7895095620880678</v>
+        <v>0.7847784631326574</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8755936801595348</v>
+        <v>0.8964912959311562</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.25427822106135356</v>
+        <v>0.23304919591555992</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.750809632589549</v>
+        <v>3.646375147002022</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.028253673782320892</v>
+        <v>0.027618448277515664</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03653917666904414</v>
+        <v>0.056739547840259454</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.23955422525807388</v>
+        <v>0.175003603063844</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7709295035723588</v>
+        <v>0.7391565338644296</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7953754261855687</v>
+        <v>0.7518781313787388</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.877858259883771</v>
+        <v>0.8718260922879892</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.26110021795880745</v>
+        <v>0.20161155043997636</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.886998571866904</v>
+        <v>3.030277563024574</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02773077676003379</v>
+        <v>0.028942254582382577</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03561086607252808</v>
+        <v>0.05985556570855205</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.24601550103658612</v>
+        <v>0.13540389472822928</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7644891023142747</v>
+        <v>0.7458650432608096</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7845138513564436</v>
+        <v>0.759972059513496</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8763059421429069</v>
+        <v>0.878706106589701</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24866823939164612</v>
+        <v>0.2087659055722136</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.6406695107542</v>
+        <v>3.166181645241533</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02850481894796713</v>
+        <v>0.028139370002253618</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03733947263750049</v>
+        <v>0.060322009925893025</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2405979718322032</v>
+        <v>0.15181508149978187</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7622815786057381</v>
+        <v>0.7405769796072541</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7876440125519188</v>
+        <v>0.7565945454674929</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8769822889858614</v>
+        <v>0.8726117293082516</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2521622905284755</v>
+        <v>0.20573834807089542</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.7090737210529077</v>
+        <v>3.1083713671110416</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02873690241116824</v>
+        <v>0.029617583216895386</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.037817602038607435</v>
+        <v>0.05029584759692073</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.23095253135263794</v>
+        <v>0.16198782886904078</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7516657354483444</v>
+        <v>0.7060620912605882</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7941349013377458</v>
+        <v>0.7442102194087148</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8638886680159394</v>
+        <v>0.8666232139973056</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2596356710232749</v>
+        <v>0.1951418941714898</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.857549951391307</v>
+        <v>2.909460329839581</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.030882919352550425</v>
+        <v>0.033953561382775145</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03397716718515693</v>
+        <v>0.04960400548576304</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2440317971241993</v>
+        <v>0.14469014874350883</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7521195512152032</v>
+        <v>0.7054662631334231</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7930422909699244</v>
+        <v>0.7416340599508303</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8646521110304186</v>
+        <v>0.8666370762481225</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.25835555441033814</v>
+        <v>0.19303205841074064</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.831905052904686</v>
+        <v>2.8704792118097675</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.030997222446574935</v>
+        <v>0.03430070568965858</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03441614529580052</v>
+        <v>0.050230606688662346</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.23955422525807388</v>
+        <v>0.13540389472822928</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7771744277415944</v>
+        <v>0.7532368607110721</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8122010379013082</v>
+        <v>0.7746647592194852</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8833784434968535</v>
+        <v>0.883134784050189</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28221124634312894</v>
+        <v>0.2226887945902365</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.324843059965798</v>
+        <v>3.437832256225021</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.027222408654176862</v>
+        <v>0.02813411799270983</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03199322031980548</v>
+        <v>0.054432493722949934</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2557323785268859</v>
+        <v>0.17616808122012967</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.773774710250882</v>
+        <v>0.7420020388552363</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8045994671091604</v>
+        <v>0.7633111209961102</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8809282694262328</v>
+        <v>0.8726377417886051</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2723757669748303</v>
+        <v>0.21182036051379663</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.117693310276944</v>
+        <v>3.2249555796982157</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.027479609275248895</v>
+        <v>0.0286017653226352</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.035609510071445846</v>
+        <v>0.05396802890708752</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.24731106616726417</v>
+        <v>0.17344724057644795</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7909136300573607</v>
+        <v>0.7361313333951214</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8149174428997735</v>
+        <v>0.7543925572150623</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8984821209670013</v>
+        <v>0.8792099875960033</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2858531406441934</v>
+        <v>0.20379724232914445</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.402994294370359</v>
+        <v>3.071537851870532</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.025252164940452345</v>
+        <v>0.02909062318156066</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03478501128768451</v>
+        <v>0.05812460104679827</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2557323785268859</v>
+        <v>0.13736627146224933</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7728024350956738</v>
+        <v>0.7647573408742211</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8006077569120332</v>
+        <v>0.780356321355115</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.892269147340303</v>
+        <v>0.8926946884317819</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.26741098855951334</v>
+        <v>0.22843616516910795</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.015240234590396</v>
+        <v>3.552828500094366</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.0271752525695173</v>
+        <v>0.025549433833786026</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03990594210334056</v>
+        <v>0.05978456235694372</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2405979718322032</v>
+        <v>0.175003603063844</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7613936263798633</v>
+        <v>0.7465273108970326</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7876256134877062</v>
+        <v>0.7660263099525559</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8822841336586621</v>
+        <v>0.8865186425819336</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25214154792960536</v>
+        <v>0.21435040430643548</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.708665750246263</v>
+        <v>3.2739848219567986</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.028962579313498556</v>
+        <v>0.027431393974013788</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.039433659833692514</v>
+        <v>0.06341398617220022</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.22529494879186368</v>
+        <v>0.15181508149978187</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7629540097515435</v>
+        <v>0.7303619120536662</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7897602106395946</v>
+        <v>0.7514140106169315</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8837210457608865</v>
+        <v>0.8766004833359275</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.25456444908880793</v>
+        <v>0.2012116480237457</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.7564735630786834</v>
+        <v>3.022752861019092</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.0287925743614575</v>
+        <v>0.029912385799384347</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0394453273250836</v>
+        <v>0.06204720021052531</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.23095253135263794</v>
+        <v>0.12808001744696978</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7326894811700491</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7562162651158914</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8783838350123899</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20540306781129275</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.1019963882142747</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.029689937420155674</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06150809924280224</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12808001744696978</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>146.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5506754527043749</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6344724789101088</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6147728127243524</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4762455276139226</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.712328767123288</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.901790587431771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.49369347981028255</v>
+        <v>0.13460083174990192</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5795295230037633</v>
+        <v>0.2912676215983581</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5570252521657761</v>
+        <v>0.20950009076239132</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.39906714941230925</v>
+        <v>0.12111506678772886</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.273972602739726</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0538634861878817</v>
+        <v>0.1166368587784185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5952179740870991</v>
+        <v>0.5030078933745536</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6796541141625636</v>
+        <v>0.5981932745974589</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6575935527022126</v>
+        <v>0.5769421406330447</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5289605200869487</v>
+        <v>0.41749902359974195</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6301369863013697</v>
+        <v>3.712328767123288</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.86314340223944</v>
+        <v>0.901790587431771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5876886824798921</v>
+        <v>0.4283286075672098</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6515137469898694</v>
+        <v>0.5283453235969673</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6272976377655932</v>
+        <v>0.49383496212952405</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.49726430894063295</v>
+        <v>0.31939219773855976</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.061643835616438</v>
+        <v>4.273972602739726</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1339440036027202</v>
+        <v>1.0538634861878817</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.692376254365434</v>
+        <v>0.6171383847657806</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5913246819449481</v>
+        <v>0.5579033597993324</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6043870002791328</v>
+        <v>0.5698862257226746</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5577644735263552</v>
+        <v>0.5801625812551564</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.212328767123288</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8981257692772446</v>
+        <v>0.48252406745479787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7038980150873156</v>
+        <v>0.7444055598119849</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6016344771085627</v>
+        <v>0.6613565123287066</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.614674197707097</v>
+        <v>0.6842691663005315</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5609586168813002</v>
+        <v>0.6155167655633158</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.404109589041096</v>
+        <v>2.212328767123288</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.036151769708419</v>
+        <v>1.8981257692772446</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4659474077070129</v>
+        <v>0.756247925064818</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4095056547592207</v>
+        <v>0.6819548335067898</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3727911612225439</v>
+        <v>0.7064294133158163</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3300423667476242</v>
+        <v>0.6200728372818697</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.684931506849315</v>
+        <v>2.404109589041096</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4324005635947925</v>
+        <v>2.036151769708419</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5536328154942998</v>
+        <v>0.34939525914228475</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.48871857692455994</v>
+        <v>0.3924161934459963</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.4564741926515204</v>
+        <v>0.36086157893427456</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.39279801617783394</v>
+        <v>0.3130798656053237</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.8424657534246576</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.8106518398151479</v>
+        <v>0.3450164810916233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.37937588543206713</v>
+        <v>0.5042705865189572</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.38017458923592246</v>
+        <v>0.49852468775355413</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.29861968545012146</v>
+        <v>0.4890236662473946</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.21802696481796993</v>
+        <v>0.36265753129172007</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.1232876712328768</v>
+        <v>2.684931506849315</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5795696094687623</v>
+        <v>1.4324005635947925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4994803146211222</v>
+        <v>0.5944439499223813</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5287038782458403</v>
+        <v>0.5768543702301212</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46131054220079715</v>
+        <v>0.5522372913429354</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.371282806958465</v>
+        <v>0.4289055291490843</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3767123287671232</v>
+        <v>2.8424657534246576</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4001990546120964</v>
+        <v>1.8106518398151479</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6051286412476294</v>
+        <v>0.36741464592936474</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.651680803602799</v>
+        <v>0.33630462906952313</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6140275005608805</v>
+        <v>0.25264557964625856</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5252171461070707</v>
+        <v>0.1919520925568886</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.8835616438356166</v>
+        <v>2.1232876712328768</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.040624971186349</v>
+        <v>1.5795696094687623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>146.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5886479938198039</v>
+        <v>0.4656184834166725</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6321672574144122</v>
+        <v>0.47382387662648995</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5910730986839857</v>
+        <v>0.4032700543024447</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5076406445032168</v>
+        <v>0.32217435253449866</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3767123287671232</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4001990546120964</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>146.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5874416959165298</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6020975208722905</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5640215115326215</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.49839215946960913</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.8835616438356166</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.040624971186349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>146.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5651993037237056</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5611767001229955</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5188126533894993</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.47435214694445943</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.691780821917808</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0276526213902994</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.2876712328767123</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5342465753424658</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2328767123287671</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.6164383561643836</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
         <v>0.0136986301369863</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02054794520547945</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.363013698630137</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4931506849315068</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1095890410958904</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
         <v>0.0136986301369863</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.03424657534246575</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.3698630136986301</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0273972602739726</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5547945205479452</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.363013698630137</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0684931506849315</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0136986301369863</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.19863013698630136</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.2602739726027397</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0958904109589041</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.363013698630137</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0273972602739726</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.0410958904109589</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.21232876712328766</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.1232876712328767</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.2328767123287671</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.136986301369863</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.10273972602739725</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0410958904109589</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4315068493150685</v>
+        <v>0.19863013698630136</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2328767123287671</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0547945205479452</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.136986301369863</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15753424657534246</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1506849315068493</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.1095890410958904</v>
+        <v>0.21232876712328766</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.17123287671232876</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.273972602739726</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.2945205479452055</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.07534246575342465</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.0684931506849315</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.3356164383561644</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.22602739726027396</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2054794520547945</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.04794520547945205</v>
+        <v>0.10273972602739725</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.10273972602739725</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4520547945205479</v>
+        <v>0.4315068493150685</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1917808219178082</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.0547945205479452</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.0136986301369863</v>
+        <v>0.15753424657534246</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2328767123287671</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3904109589041096</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.3082191780821918</v>
+        <v>0.17123287671232876</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,19 +5235,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.0547945205479452</v>
+        <v>0.2945205479452055</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.0273972602739726</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3150684931506849</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.3767123287671233</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="F54" t="n" s="113">
         <v>0.22602739726027396</v>
@@ -5250,6 +5256,84 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.04794520547945205</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.0547945205479452</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3082191780821918</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.0547945205479452</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.3767123287671233</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.822891564428633</v>
+        <v>0.8526296431572575</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8283197537881778</v>
+        <v>0.9643743053281298</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.84659355380718</v>
+        <v>0.9490530719172332</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.546731010371517</v>
+        <v>0.900231556216618</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.824781954041366</v>
+        <v>27.06962809316363</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02440734590299775</v>
+        <v>0.0056900365082078914</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.9195205479452055</v>
+        <v>1.7511415525114156</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8035132616477687</v>
+        <v>1.4334865696412857</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5085028475876796</v>
+        <v>0.8944024946579445</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7813947457517234</v>
+        <v>0.9589394054781308</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.788386203318659</v>
+        <v>0.9601682047428144</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7370809445443252</v>
+        <v>0.9233880028695723</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5539424664019664</v>
+        <v>0.9233880028695722</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.725589804079985</v>
+        <v>24.105571906644183</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03091886960327989</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.019098026749726923</v>
-      </c>
+        <v>0.006685362634577941</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5167080348134263</v>
+        <v>0.9233880028695723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7628492372487083</v>
+        <v>0.5728230077595764</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7715829444539617</v>
+        <v>0.9442581470200595</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7271867419941338</v>
+        <v>0.8944024946579445</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5296299273742053</v>
+        <v>0.8944024946579445</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.377956793153942</v>
+        <v>16.939841367667952</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03378206122505544</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02709852466426387</v>
-      </c>
+        <v>0.01549451219133273</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5002976603619328</v>
+        <v>0.8944024946579445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7733089970554055</v>
+        <v>0.5931739431739431</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7822895623197488</v>
+        <v>0.9378110523766774</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7475473964367638</v>
+        <v>0.882904171122337</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.544989679158232</v>
+        <v>0.8829041711223371</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.5932570374447934</v>
+        <v>15.080027693296582</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.033276971513556554</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.03209866817044299</v>
-      </c>
+        <v>0.01665257010653702</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5167080348134263</v>
+        <v>0.8829041711223371</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7908187173651091</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7913577563389282</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7467108025310925</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5583619685516642</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.792893243730866</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.029721582925107706</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.02479381384456317</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5002976603619328</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>146.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9253723364820696</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9581826017632639</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9205355237092169</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9063623056713309</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.636986301369863</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.48252406745479787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>146.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7911121774506734</v>
+        <v>0.9776411550946691</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.805776267346715</v>
+        <v>0.9681827252691946</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7439875650110789</v>
+        <v>0.9474018469607711</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.640783370280264</v>
+        <v>0.9309845777121606</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.712328767123288</v>
+        <v>2.212328767123288</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.901790587431771</v>
+        <v>1.8981257692772446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>146.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.834541319025595</v>
+        <v>0.9813902113541229</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8282204469148284</v>
+        <v>0.9721496957507093</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7729152190229115</v>
+        <v>0.9557772676985877</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6768967584752013</v>
+        <v>0.9353842241364901</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.273972602739726</v>
+        <v>2.404109589041096</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0538634861878817</v>
+        <v>2.036151769708419</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>146.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8020150067395807</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8140410546774027</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7427209930670872</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6661234734472372</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6301369863013697</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.86314340223944</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>146.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8191665047054715</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8016963931823499</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7304734794765195</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6308731444782841</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.061643835616438</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1339440036027202</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.636986301369863</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.19863013698630136</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0136986301369863</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.0273972602739726</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2876712328767123</v>
+        <v>0.21232876712328766</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5342465753424658</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.136986301369863</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2328767123287671</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6164383561643836</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4931506849315068</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3698630136986301</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5547945205479452</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8433266876117942</v>
+        <v>0.7473609582755214</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8566246786951117</v>
+        <v>0.8795100708455975</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7492068988488227</v>
+        <v>0.8390454177382745</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7492068988488227</v>
+        <v>0.7087222769628069</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.974701021757399</v>
+        <v>7.299448817158363</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.024422692684612366</v>
+        <v>0.018246314864837885</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.7636986301369864</v>
+        <v>2.1301369863013697</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5179332653990447</v>
+        <v>1.098500048513547</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.7492068988488227</v>
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7492068988488229</v>
+        <v>0.8433266876117942</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7492068988488229</v>
+        <v>0.8566246786951117</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5613109772826701</v>
+        <v>0.7492068988488227</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7492068988488229</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7492068988488229</v>
-      </c>
+        <v>0.7492068988488227</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.974701021757399</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.024422692684612366</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7492068988488229</v>
+        <v>0.7492068988488227</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5613109772826701</v>
+        <v>0.3750353007624967</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7492068988488229</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5613109772826701</v>
-      </c>
+        <v>0.7711963172552398</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6275992887103257</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6275992887103254</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.370559022494148</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03043827369860214</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7492068988488229</v>
+        <v>0.6275992887103256</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5087935622039068</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8567251654903321</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7493606433292722</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7493606433292723</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.97959277651458</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.026077781010687813</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7493606433292722</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>146.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9186679931757196</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9352023574737242</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8094806594760288</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7492068988488225</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.684931506849315</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4324005635947925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9499153519167362</v>
+        <v>0.7752282757927593</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9352023574737243</v>
+        <v>0.8826387144471655</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8094806594760289</v>
+        <v>0.7898870783369087</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7492068988488227</v>
+        <v>0.7278806206377331</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3450164810916233</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>146.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9247443638415257</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9277953799983317</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8871662848758297</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7898150996642107</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.684931506849315</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4324005635947925</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>146.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9407823350568006</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8825816243680489</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7897334793869419</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7558414783620105</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.8424657534246576</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.8106518398151479</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.136986301369863</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.863013698630137</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.10273972602739725</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0410958904109589</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4315068493150685</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2328767123287671</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.0547945205479452</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.136986301369863</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15753424657534246</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1506849315068493</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.1095890410958904</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.17123287671232876</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.273972602739726</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8109342996691351</v>
+        <v>0.683165161975571</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8109722324253161</v>
+        <v>0.7975382926357487</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.682046504329747</v>
+        <v>0.7496952547616464</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.682046504329747</v>
+        <v>0.5676738562933487</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>4.290228059244814</v>
+        <v>3.939205605931633</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.0312897742610754</v>
+        <v>0.019219393525933767</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.787671232876712</v>
+        <v>2.990867579908676</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>0.9483845001539526</v>
+        <v>0.6287434473407042</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.6820465043297469</v>
+        <v>0.486818317810627</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.6820465043297469</v>
+        <v>0.8424283765347886</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.6820465043297469</v>
+        <v>0.8483305833496959</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.4651874340684278</v>
+        <v>0.7366094567459418</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.6820465043297469</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.6820465043297469</v>
-      </c>
+        <v>0.7366094567459416</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.5932870455066475</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.025410279607056864</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.6820465043297469</v>
+        <v>0.7366094567459417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.4651874340684278</v>
+        <v>0.18983875874657707</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.6820465043297469</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.4651874340684278</v>
-      </c>
+        <v>0.6482776504787444</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.47959379432347726</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.47959379432347715</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.8431517114597433</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.025873972837686027</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.6820465043297469</v>
+        <v>0.47959379432347715</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.22041480276535186</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6548457359974929</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.486818317810627</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4868183178106271</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.89725524003011</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02889972666300973</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.486818317810627</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>146.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9181570602367489</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9170731989131912</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7573750518726421</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.6820465043297468</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.8835616438356166</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.040624971186349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9159825181791543</v>
+        <v>0.5625354443570841</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9170731989131912</v>
+        <v>0.7769259207847585</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.7573750518726419</v>
+        <v>0.5637344900235698</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.6820465043297468</v>
+        <v>0.5180178181844192</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.691780821917808</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0276526213902994</v>
+        <v>0.1166368587784185</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>146.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9197484094134553</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8784723509310656</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8164271567388195</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7474728015568304</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.712328767123288</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.901790587431771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>146.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.940536919076513</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8756179545774988</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8113173383472442</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7471241567350579</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.273972602739726</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0538634861878817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.0547945205479452</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
         <v>0.0136986301369863</v>
       </c>
-      <c r="D23" t="n" s="456">
+      <c r="C25" t="n" s="455">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.2328767123287671</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3904109589041096</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3082191780821918</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.0547945205479452</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.3767123287671233</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.22602739726027396</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="458">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.6164383561643836</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9589394054781308</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9601682047428144</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9233880028695722</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>24.105571906644183</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.006685362634577941</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>2.308219178082192</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.9291415582143434</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9233880028695723</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6658510194411638</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6690739041637503</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5027130403836259</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.0218227349916345</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05477622810462065</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.25</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2922180877107767</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.502713040383626</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.8526454038434575</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9233880028695723</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.25272040097174886</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.502713040383626</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.8526454038434575</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9233880028695723</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.8526454038434575</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9233880028695723</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.25272040097174886</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.25272040097174886</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.502713040383626</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>146.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9792655881989581</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9806599825804997</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9423463818344691</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9233880028695725</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>2.212328767123288</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8981257692772446</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8835458793957743</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8668082372657824</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6145866258532539</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5027130403836261</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>2.1232876712328768</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5795696094687623</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>146.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9820063014203211</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9806599825804997</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9423463818344691</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9233880028695726</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>2.404109589041096</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.036151769708419</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8490321085711479</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8668082372657824</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.614586625853254</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.502713040383626</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3767123287671232</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4001990546120964</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="C23" t="n" s="569">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.2945205479452055</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.07534246575342465</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.0684931506849315</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.19863013698630136</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.2602739726027397</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.3356164383561644</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.22602739726027396</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.363013698630137</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.21232876712328766</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.1232876712328767</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.2328767123287671</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.04794520547945205</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6658510194411638</v>
+        <v>0.8109342996691351</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6690739041637503</v>
+        <v>0.8109722324253161</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5027130403836259</v>
+        <v>0.682046504329747</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.502713040383626</v>
+        <v>0.682046504329747</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.0218227349916345</v>
+        <v>4.290228059244814</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05477622810462065</v>
+        <v>0.0312897742610754</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.25</v>
+        <v>2.787671232876712</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2922180877107767</v>
+        <v>0.9483845001539526</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.25272040097174886</v>
+        <v>0.4651874340684278</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.25272040097174886</v>
+        <v>0.4651874340684278</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.25272040097174886</v>
+        <v>0.4651874340684278</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297469</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>146.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8835458793957743</v>
+        <v>0.9181570602367489</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8668082372657824</v>
+        <v>0.9170731989131912</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6145866258532539</v>
+        <v>0.7573750518726421</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5027130403836261</v>
+        <v>0.6820465043297468</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>2.1232876712328768</v>
+        <v>2.8835616438356166</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5795696094687623</v>
+        <v>1.040624971186349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>146.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8490321085711479</v>
+        <v>0.9159825181791543</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8668082372657824</v>
+        <v>0.9170731989131912</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.614586625853254</v>
+        <v>0.7573750518726419</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.502713040383626</v>
+        <v>0.6820465043297468</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3767123287671232</v>
+        <v>2.691780821917808</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4001990546120964</v>
+        <v>1.0276526213902994</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.2945205479452055</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.07534246575342465</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.0684931506849315</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.3356164383561644</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.22602739726027396</v>
+        <v>0.3082191780821918</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2054794520547945</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.04794520547945205</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.10273972602739725</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4520547945205479</v>
+        <v>0.3767123287671233</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1917808219178082</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.785003547557304</v>
+        <v>0.7490717923035084</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8176837874795947</v>
+        <v>0.7755056503623942</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8909849047483916</v>
+        <v>0.8744641145092779</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.30962949544021595</v>
+        <v>0.2567517652796115</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.484975725283219</v>
+        <v>3.4544550970403862</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02672277614452884</v>
+        <v>0.028497084789109752</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>3.036986301369863</v>
+        <v>2.43013698630137</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7895886051155341</v>
+        <v>0.7119056372004309</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2774660682375529</v>
+        <v>0.22401595061349552</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7645477719687003</v>
+        <v>0.73052729886373</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7933625142471711</v>
+        <v>0.7566317028668048</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.862507049571856</v>
+        <v>0.8523715332755039</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.29903228236028945</v>
+        <v>0.25675109284486725</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.839392989886444</v>
+        <v>3.108998632030949</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02925109006320826</v>
+        <v>0.03169744040787876</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03351598034144016</v>
+        <v>0.04691290298710254</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.272860941687028</v>
+        <v>0.2417930111911366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7712947553426448</v>
+        <v>0.6939444831516277</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.802153301367916</v>
+        <v>0.7421669634266161</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8656919995529445</v>
+        <v>0.8417823849134147</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3105782499738558</v>
+        <v>0.24232723293342032</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.054418430603187</v>
+        <v>2.878478930745487</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02831825999685214</v>
+        <v>0.03587765032595</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.030620923115016463</v>
+        <v>0.04739686681953508</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.28832014659327987</v>
+        <v>0.21812634249242768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7629234858615744</v>
+        <v>0.6964275581305681</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7896941069796883</v>
+        <v>0.7385247876969752</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8660987646913856</v>
+        <v>0.8409192320814086</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.29439316584418473</v>
+        <v>0.23886550941264442</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.7549785012606325</v>
+        <v>2.8244542998634063</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02938981930615421</v>
+        <v>0.03577745400622961</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03407688212521766</v>
+        <v>0.0489978757068374</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2627502182944438</v>
+        <v>0.21812634249242768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7611513873061286</v>
+        <v>0.7569726964183366</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7940166270530319</v>
+        <v>0.7889975598869222</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8656242367636358</v>
+        <v>0.8806688405539097</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2998702850174037</v>
+        <v>0.29352374629384914</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.854760778470488</v>
+        <v>3.7392816853875845</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.0295688597899283</v>
+        <v>0.0288670283088244</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03427320044013698</v>
+        <v>0.05871728362086285</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2627502182944438</v>
+        <v>0.2417930111911366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.759748850128773</v>
+        <v>0.725904601401169</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7941641203415818</v>
+        <v>0.7402504353587989</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8724667431533101</v>
+        <v>0.8431486550324196</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3000597007349768</v>
+        <v>0.24049748959726594</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.8582394947833514</v>
+        <v>2.8498620830465153</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.029937102712208976</v>
+        <v>0.030660226965129867</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03682506720525952</v>
+        <v>0.06812462177699251</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.250873939781736</v>
+        <v>0.18846472146898435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.760950356257264</v>
+        <v>0.7386745867594529</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7961021098361432</v>
+        <v>0.7558867764105581</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8732941397952872</v>
+        <v>0.8548653296249983</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3025643116164127</v>
+        <v>0.2559806612521005</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.904415632728605</v>
+        <v>3.0964597709865758</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.029816669480904837</v>
+        <v>0.02915816264915882</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.036782615157267086</v>
+        <v>0.06688698570460926</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.250873939781736</v>
+        <v>0.23242458702496877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7596572303047827</v>
+        <v>0.749832289049402</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8073751519320204</v>
+        <v>0.774864173501394</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.850969702091777</v>
+        <v>0.875073510218801</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31773929088162123</v>
+        <v>0.2766298514958162</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.191438228400771</v>
+        <v>3.441763070553286</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.030464430127282546</v>
+        <v>0.02728979831927566</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.025819084619032092</v>
+        <v>0.07124570152852261</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.28832014659327987</v>
+        <v>0.2346633729580315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7630888351771539</v>
+        <v>0.7396254106973097</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8062275157672404</v>
+        <v>0.7654173037113491</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8520318983287685</v>
+        <v>0.8672731605626434</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3161453527379081</v>
+        <v>0.26607832899477135</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.16069143645183</v>
+        <v>3.262889018759989</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.03010325557306843</v>
+        <v>0.02805507444907222</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.026752958724243527</v>
+        <v>0.07160513728560923</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.296498988390429</v>
+        <v>0.21876584158161175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.787720585072444</v>
+        <v>0.7166061210859754</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8199954315918047</v>
+        <v>0.7459009971154359</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8922110839878552</v>
+        <v>0.853135451382862</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.33605866785509264</v>
+        <v>0.2459453175291533</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.555414558881116</v>
+        <v>2.935473924131435</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.026370308901100113</v>
+        <v>0.03179442584021253</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.03395376388125504</v>
+        <v>0.07040929931446677</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.296498988390429</v>
+        <v>0.18843369848602914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7743806009488666</v>
+        <v>0.7186146708275702</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.808884799353471</v>
+        <v>0.7509161786049151</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8849316757754031</v>
+        <v>0.854549767728886</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31985364738041444</v>
+        <v>0.25091842244222673</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.232446171822395</v>
+        <v>3.0147127758002705</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.027573417821535495</v>
+        <v>0.03163117622467477</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.03640170604065932</v>
+        <v>0.06956820488185618</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.272860941687028</v>
+        <v>0.18846472146898435</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6029602400980011</v>
+        <v>0.6524351257842002</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6773551653307984</v>
+        <v>0.5753967590276375</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6559483570041885</v>
+        <v>0.5854859696671338</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.522401596210007</v>
+        <v>0.6108250339278383</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.712328767123288</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.901790587431771</v>
+        <v>0.48252406745479787</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5281122844420474</v>
+        <v>0.7618066475554811</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6098084295143743</v>
+        <v>0.6656410548777043</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5850020698057827</v>
+        <v>0.6904223051256337</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4214475188650495</v>
+        <v>0.6072958820946555</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.273972602739726</v>
+        <v>2.212328767123288</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0538634861878817</v>
+        <v>1.8981257692772446</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6273655519728685</v>
+        <v>0.7713316503723762</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7044951321332988</v>
+        <v>0.687299668000542</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6767581235777632</v>
+        <v>0.7144917331994751</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5538857400098661</v>
+        <v>0.6063718083499803</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.6301369863013697</v>
+        <v>2.404109589041096</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.86314340223944</v>
+        <v>2.036151769708419</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6159578436112109</v>
+        <v>0.1545078896777554</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6724526447289695</v>
+        <v>0.34532504192725955</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6443478474816552</v>
+        <v>0.2501217176986514</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.514238266823243</v>
+        <v>0.13845644433206541</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.061643835616438</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1339440036027202</v>
+        <v>0.1166368587784185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6331023005484232</v>
+        <v>0.5636114166915487</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6713445164314891</v>
+        <v>0.6770890237273296</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6276015282916767</v>
+        <v>0.6561085052710226</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5435885868241528</v>
+        <v>0.4675728488585355</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.8835616438356166</v>
+        <v>3.712328767123288</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.040624971186349</v>
+        <v>0.901790587431771</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6235482488603631</v>
+        <v>0.4623234057786152</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6566919299014082</v>
+        <v>0.5802170399383461</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6108317338819834</v>
+        <v>0.5419511473283979</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5337138127398332</v>
+        <v>0.3340791367923378</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.691780821917808</v>
+        <v>4.273972602739726</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0276526213902994</v>
+        <v>1.0538634861878817</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6904815078693305</v>
+        <v>0.495283484791489</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5679145879103936</v>
+        <v>0.45102335358402124</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5784182123298939</v>
+        <v>0.3477881798647424</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5283042262959469</v>
+        <v>0.30020085429873244</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>2.212328767123288</v>
+        <v>2.1232876712328768</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.8981257692772446</v>
+        <v>1.5795696094687623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6997168892538447</v>
+        <v>0.5095045975372786</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5772395160848508</v>
+        <v>0.517039990191622</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5874995728425045</v>
+        <v>0.43262965266601444</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5259945802284056</v>
+        <v>0.3416696799221595</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>2.404109589041096</v>
+        <v>2.3767123287671232</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.036151769708419</v>
+        <v>1.4001990546120964</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4862396868077968</v>
+        <v>0.6247663518199587</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4607417498977002</v>
+        <v>0.6430041533359212</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.36418992696751645</v>
+        <v>0.5980362446339913</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3112460729044704</v>
+        <v>0.5225856635223217</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>2.1232876712328768</v>
+        <v>2.8835616438356166</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5795696094687623</v>
+        <v>1.040624971186349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>146.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5374969884114544</v>
+        <v>0.6113845958270662</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5555450850133035</v>
+        <v>0.6118894341259372</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4778979263149448</v>
+        <v>0.56362060136054</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.39278085525391027</v>
+        <v>0.5082662381937038</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3767123287671232</v>
+        <v>2.691780821917808</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4001990546120964</v>
+        <v>1.0276526213902994</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.0136986301369863</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.0273972602739726</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.2876712328767123</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5342465753424658</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.136986301369863</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.363013698630137</v>
+      </c>
+      <c r="C40" t="n" s="798">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="D40" t="n" s="799">
         <v>0.0136986301369863</v>
       </c>
-      <c r="C40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.0273972602739726</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.2328767123287671</v>
+        <v>0.19863013698630136</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1095890410958904</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.6164383561643836</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0136986301369863</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.02054794520547945</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.0</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.363013698630137</v>
+        <v>0.21232876712328766</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4931506849315068</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.1095890410958904</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
         <v>0.0136986301369863</v>
       </c>
       <c r="C42" t="n" s="798">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="D42" t="n" s="799">
         <v>0.0</v>
       </c>
-      <c r="D42" t="n" s="799">
-        <v>0.03424657534246575</v>
-      </c>
       <c r="E42" t="n" s="800">
-        <v>0.3698630136986301</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0273972602739726</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5547945205479452</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.0547945205479452</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.0136986301369863</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2328767123287671</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3904109589041096</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.3082191780821918</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.0547945205479452</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C44" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="799">
         <v>0.0273972602739726</v>
       </c>
-      <c r="D44" t="n" s="799">
-        <v>0.3150684931506849</v>
-      </c>
       <c r="E44" t="n" s="800">
-        <v>0.3767123287671233</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.22602739726027396</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.363013698630137</v>
+        <v>0.2945205479452055</v>
       </c>
       <c r="C45" t="n" s="798">
+        <v>0.07534246575342465</v>
+      </c>
+      <c r="D45" t="n" s="799">
         <v>0.0684931506849315</v>
       </c>
-      <c r="D45" t="n" s="799">
-        <v>0.0136986301369863</v>
-      </c>
       <c r="E45" t="n" s="800">
-        <v>0.19863013698630136</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.2602739726027397</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.0958904109589041</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.363013698630137</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0273972602739726</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.0410958904109589</v>
+        <v>0.10273972602739725</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.21232876712328766</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.1232876712328767</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.2328767123287671</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.2945205479452055</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.07534246575342465</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.0684931506849315</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.3356164383561644</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.22602739726027396</v>
+        <v>0.3082191780821918</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2054794520547945</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.04794520547945205</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.10273972602739725</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4520547945205479</v>
+        <v>0.3767123287671233</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1917808219178082</v>
+        <v>0.22602739726027396</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
